--- a/Data Sheet.xlsx
+++ b/Data Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="District" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -348,16 +348,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -676,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -913,10 +913,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="11"/>
       <c r="E2" s="1">
         <v>6000</v>
       </c>
@@ -940,7 +940,7 @@
       <c r="A4" s="2">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3"/>
@@ -949,7 +949,7 @@
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="3"/>
@@ -970,7 +970,7 @@
       <c r="A7" s="2">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3"/>
@@ -979,7 +979,7 @@
       <c r="A8" s="2">
         <v>0</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
@@ -992,11 +992,11 @@
       <c r="C9" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" s="4">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="C2" s="1">
         <v>294</v>
@@ -1046,38 +1046,38 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <f>127006*C2*D2/1000000</f>
         <v>5600.9646000000002</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <f>730000*B2/1000000</f>
-        <v>4380</v>
-      </c>
-      <c r="C6" s="11" t="s">
+        <v>6570</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <f>B5-B6</f>
-        <v>1220.9646000000002</v>
-      </c>
-      <c r="C7" s="11" t="s">
+        <v>-969.03539999999975</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Data Sheet.xlsx
+++ b/Data Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6450" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="District" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t xml:space="preserve">Tom </t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">Income </t>
   </si>
   <si>
-    <t>Narnia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Average Income </t>
   </si>
   <si>
@@ -203,18 +200,32 @@
   </si>
   <si>
     <t>Corporate Tax</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>100,000 sq. km</t>
+  </si>
+  <si>
+    <t>$113.9 per acre for corn seeds</t>
+  </si>
+  <si>
+    <t>1 mil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +254,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -339,24 +356,45 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -674,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -710,23 +748,23 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
-        <v>2000</v>
+      <c r="C2" s="2">
+        <v>4000</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -736,23 +774,23 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
-        <v>2000</v>
+      <c r="C3" s="2">
+        <v>254000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -762,23 +800,23 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
-        <v>2000</v>
+      <c r="C4" s="2">
+        <v>6375</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -788,23 +826,23 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
+      <c r="C5" s="2">
+        <v>254000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -814,23 +852,23 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
-        <v>0</v>
+      <c r="C6" s="2">
+        <v>254000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -840,43 +878,48 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
+      <c r="C7" s="2">
+        <v>254000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>13</v>
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>4000</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -887,131 +930,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="10"/>
+    <col min="5" max="5" width="10.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="E2" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="13">
+        <v>1030375</v>
+      </c>
+      <c r="F2" s="11">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
-        <v>300000</v>
+      <c r="G2" s="13">
+        <v>3334500000</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="14">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="G5" s="16">
+        <v>3385500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15">
+        <f>E2*F2*A6</f>
+        <v>1030375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>0</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="G7" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>0</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <f>E2*F2*A6</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="F11" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A11:C11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1021,75 +1068,90 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="2">
+        <v>1030375</v>
+      </c>
+      <c r="C2" s="1">
+        <v>35000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B5" s="5">
+        <f>127006*C2*D2/1000000</f>
+        <v>755685.7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5">
+        <f>730000*B2/1000000</f>
+        <v>752173.75</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5">
+        <f>B5-B6</f>
+        <v>3511.9499999999534</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="4">
-        <v>9000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>294</v>
-      </c>
-      <c r="D2" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="8">
-        <f>127006*C2*D2/1000000</f>
-        <v>5600.9646000000002</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="8">
-        <f>730000*B2/1000000</f>
-        <v>6570</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="8">
-        <f>B5-B6</f>
-        <v>-969.03539999999975</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Sheet.xlsx
+++ b/Data Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3590"/>
   </bookViews>
   <sheets>
     <sheet name="District" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,8 +261,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +278,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -356,7 +368,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -390,10 +402,17 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -775,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>254000</v>
+        <v>571500</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -801,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>6375</v>
+        <v>14344</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
@@ -827,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>254000</v>
+        <v>571500</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -853,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>254000</v>
+        <v>571500</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -879,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>254000</v>
+        <v>571500</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
@@ -905,7 +924,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -930,19 +949,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="10"/>
     <col min="5" max="5" width="10.26953125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
@@ -962,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="13">
-        <v>1030375</v>
+        <v>2318344</v>
       </c>
       <c r="F2" s="11">
         <v>5</v>
@@ -972,30 +991,30 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="14">
+      <c r="A3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="14">
         <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="C3" s="15"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
+      <c r="A4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="14">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
+      <c r="A5" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="14">
         <v>0</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="C5" s="15"/>
       <c r="G5" s="16">
@@ -1003,23 +1022,23 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
+      <c r="A6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14">
         <v>0.2</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="15">
-        <f>E2*F2*A6</f>
-        <v>1030375</v>
+        <f>E2*F2*B6</f>
+        <v>2318344</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
+      <c r="A7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14">
         <v>0</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>10</v>
       </c>
       <c r="C7" s="15"/>
       <c r="G7" s="10" t="s">
@@ -1027,23 +1046,29 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+      <c r="A8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14">
         <v>0</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+      <c r="A9" s="20"/>
+      <c r="B9" s="14">
         <v>0</v>
       </c>
-      <c r="B9" s="11"/>
       <c r="C9" s="15"/>
+      <c r="G9" s="19">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="16"/>
@@ -1058,7 +1083,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1083,8 +1108,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="2">
-        <v>1030375</v>
+      <c r="B2" s="13">
+        <v>2318344</v>
       </c>
       <c r="C2" s="1">
         <v>35000</v>
@@ -1111,7 +1136,7 @@
       </c>
       <c r="B6" s="5">
         <f>730000*B2/1000000</f>
-        <v>752173.75</v>
+        <v>1692391.12</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>52</v>
@@ -1123,7 +1148,7 @@
       </c>
       <c r="B7" s="5">
         <f>B5-B6</f>
-        <v>3511.9499999999534</v>
+        <v>-936705.42000000016</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>52</v>

--- a/Data Sheet.xlsx
+++ b/Data Sheet.xlsx
@@ -13,8 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="District" sheetId="1" r:id="rId1"/>
-    <sheet name="Appropriations" sheetId="3" r:id="rId2"/>
-    <sheet name="Food" sheetId="5" r:id="rId3"/>
+    <sheet name="Food" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t xml:space="preserve">Tom </t>
   </si>
@@ -43,9 +42,6 @@
     <t>Jamie</t>
   </si>
   <si>
-    <t xml:space="preserve">population </t>
-  </si>
-  <si>
     <t>Mark</t>
   </si>
   <si>
@@ -64,9 +60,6 @@
     <t>Foreign Aid</t>
   </si>
   <si>
-    <t xml:space="preserve">Income </t>
-  </si>
-  <si>
     <t xml:space="preserve">Average Income </t>
   </si>
   <si>
@@ -205,13 +198,22 @@
     <t>Bill</t>
   </si>
   <si>
-    <t>100,000 sq. km</t>
-  </si>
-  <si>
     <t>$113.9 per acre for corn seeds</t>
   </si>
   <si>
-    <t>1 mil</t>
+    <t>Land Area (sq. km.)</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Excess</t>
+  </si>
+  <si>
+    <t>Kreigberg</t>
+  </si>
+  <si>
+    <t>F.D.</t>
   </si>
 </sst>
 </file>
@@ -225,7 +227,7 @@
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,12 +260,6 @@
     <font>
       <sz val="6"/>
       <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -387,9 +383,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,14 +398,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,359 +727,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="12">
+        <f>C6+C7+C8+C9+C10+C11+C12+C13</f>
+        <v>3318344</v>
+      </c>
+      <c r="C2" s="11">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12">
+        <v>6688494000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="21">
+        <f>C15-G15</f>
+        <v>3318344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5"/>
+      <c r="G5" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>259000</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12">
+        <v>571500</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12">
+        <v>14344</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12">
+        <v>571500</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12">
+        <v>571500</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="12">
+        <v>571500</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="11">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C12" s="12">
+        <v>259000</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="12">
+        <v>500000</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="20">
+        <f>C16+C17+C18+C19+C20+C21+C22</f>
+        <v>3318344</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="10">
+        <f>G16+G17+G18+G19+G20+G21+G22</f>
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>9000</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>571500</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>14344</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>571500</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>571500</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>571500</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>9000</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B19" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="14">
+        <f>B2*C2*B19</f>
+        <v>3318344</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="17"/>
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="10"/>
-    <col min="5" max="5" width="10.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="13">
-        <v>2318344</v>
-      </c>
-      <c r="F2" s="11">
-        <v>5</v>
-      </c>
-      <c r="G2" s="13">
-        <v>3334500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="14">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="14">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="G5" s="16">
-        <v>3385500000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="15">
-        <f>E2*F2*B6</f>
-        <v>2318344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="14">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="G7" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="14">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="B9" s="14">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="G9" s="19">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1098,21 +1116,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>2318344</v>
       </c>
       <c r="C2" s="1">
-        <v>35000</v>
+        <v>200000</v>
       </c>
       <c r="D2" s="1">
         <v>170</v>
@@ -1120,59 +1138,63 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5">
         <f>127006*C2*D2/1000000</f>
-        <v>755685.7</v>
+        <v>4318204</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="5">
         <f>730000*B2/1000000</f>
         <v>1692391.12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5">
         <f>B5-B6</f>
-        <v>-936705.42000000016</v>
+        <v>2625812.88</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">

--- a/Data Sheet.xlsx
+++ b/Data Sheet.xlsx
@@ -12,8 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3590"/>
   </bookViews>
   <sheets>
-    <sheet name="District" sheetId="1" r:id="rId1"/>
-    <sheet name="Food" sheetId="5" r:id="rId2"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="Districts" sheetId="7" r:id="rId2"/>
+    <sheet name="Budget" sheetId="6" r:id="rId3"/>
+    <sheet name="Agriculture" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t xml:space="preserve">Tom </t>
   </si>
@@ -159,9 +161,6 @@
     <t>Total Calories Produced</t>
   </si>
   <si>
-    <t>Leftover Corn</t>
-  </si>
-  <si>
     <t>Total Calories Consumed</t>
   </si>
   <si>
@@ -214,6 +213,27 @@
   </si>
   <si>
     <t>F.D.</t>
+  </si>
+  <si>
+    <t>Time (year)</t>
+  </si>
+  <si>
+    <t>Time (minutes)</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>31.7515 kg of corn per bushel</t>
+  </si>
+  <si>
+    <t>4000 cal per kg</t>
+  </si>
+  <si>
+    <t>Leftover Corn (in kg)</t>
   </si>
 </sst>
 </file>
@@ -405,10 +425,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -727,367 +747,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.08984375" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6328125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="B1" s="11" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
+        <f>Districts!C2+Districts!C3+Districts!C4+Districts!C5+Districts!C6+Districts!C7+Districts!C8+Districts!C9</f>
+        <v>3318344</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="11">
+        <f>D2/30</f>
+        <v>8</v>
+      </c>
+      <c r="D2" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="12">
-        <f>C6+C7+C8+C9+C10+C11+C12+C13</f>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>6688494000</v>
+      </c>
+      <c r="B6" s="20">
+        <f>Budget!C1-Budget!G1</f>
         <v>3318344</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C6" s="11">
         <v>5</v>
       </c>
-      <c r="D2" s="12">
-        <v>6688494000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F2" s="21">
-        <f>C15-G15</f>
-        <v>3318344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5"/>
-      <c r="G5" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
-        <v>259000</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12">
-        <v>571500</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="11">
-        <v>3</v>
-      </c>
-      <c r="C8" s="12">
-        <v>14344</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="11">
-        <v>4</v>
-      </c>
-      <c r="C9" s="12">
-        <v>571500</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="11">
-        <v>5</v>
-      </c>
-      <c r="C10" s="12">
-        <v>571500</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="11">
-        <v>6</v>
-      </c>
-      <c r="C11" s="12">
-        <v>571500</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="11">
-        <v>7</v>
-      </c>
-      <c r="C12" s="12">
-        <v>259000</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="12">
-        <v>500000</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="20">
-        <f>C16+C17+C18+C19+C20+C21+C22</f>
-        <v>3318344</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="10">
-        <f>G16+G17+G18+G19+G20+G21+G22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="13">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="13">
-        <v>0</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C19" s="14">
-        <f>B2*C2*B19</f>
-        <v>3318344</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="13">
-        <v>0</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="13">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="5">
+        <f>127006*Agriculture!A2*Agriculture!B2/1000000</f>
+        <v>4318204</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="5">
+        <f>730000*A2/1000000</f>
+        <v>2422391.12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="5">
+        <f>(B9-B10)/4000</f>
+        <v>473.95321999999999</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="16"/>
     </row>
   </sheetData>
@@ -1098,104 +878,445 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>259000</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>571500</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12">
+        <v>14344</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12">
+        <v>571500</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12">
+        <v>571500</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12">
+        <v>571500</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="11">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12">
+        <v>259000</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="12">
+        <v>500000</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="10"/>
+      <c r="B1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="20">
+        <f>C2+C3+C4+C5+C6+C7+C8</f>
+        <v>3318344</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="11">
+        <f>G2+G3+G4+G5+G6+G7+G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="14">
+        <f>General!A2*General!C6*B5</f>
+        <v>3318344</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>200000</v>
+      </c>
+      <c r="B2" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="12">
-        <v>2318344</v>
-      </c>
-      <c r="C2" s="1">
-        <v>200000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>170</v>
-      </c>
-    </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="5">
-        <f>127006*C2*D2/1000000</f>
-        <v>4318204</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>50</v>
+      <c r="A5" t="s">
+        <v>48</v>
       </c>
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="5">
-        <f>730000*B2/1000000</f>
-        <v>1692391.12</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>50</v>
+      <c r="A6" t="s">
+        <v>66</v>
       </c>
       <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="5">
-        <f>B5-B6</f>
-        <v>2625812.88</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>50</v>
+      <c r="A7" t="s">
+        <v>67</v>
       </c>
       <c r="E7" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D15" s="8"/>
